--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -1,114 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="Register" sheetId="3" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Register" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Execution</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>phulikely@gmail.com</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>test123@gmail.com</t>
-  </si>
-  <si>
-    <t>aaaaaaaa</t>
-  </si>
-  <si>
-    <t>testabc@gmail.com</t>
-  </si>
-  <si>
-    <t>bbbbbbb</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>testhhffsfs@gmail.com</t>
-  </si>
-  <si>
-    <t>testppgrhdfh@gmail.com</t>
-  </si>
-  <si>
-    <t>hhhhhhhh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>phulikely</t>
-  </si>
-  <si>
-    <t>test123</t>
-  </si>
-  <si>
-    <t>testabc</t>
-  </si>
-  <si>
-    <t>testhhffsfs</t>
-  </si>
-  <si>
-    <t>testppgrhdfh</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,26 +60,105 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -410,108 +424,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.140625" customWidth="1"/>
+    <col width="14.140625" customWidth="1" min="1" max="1"/>
+    <col width="28.28515625" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="14.140625" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UserName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Execution</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>phulikely@gmail.com</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>test123@gmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>aaaaaaaa</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>testabc@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>bbbbbbb</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>testhhffsfs@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>123414141</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>FAIL</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>123414141</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>testppgrhdfh@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>hhhhhhhh</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="FAIL">
+      <formula>NOT(ISERROR(SEARCH("FAIL",E2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="PASS">
+      <formula>NOT(ISERROR(SEARCH("PASS",E2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
@@ -524,138 +597,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.140625" customWidth="1"/>
+    <col width="14.140625" customWidth="1" min="1" max="1"/>
+    <col width="18.85546875" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
+    <col width="30.28515625" customWidth="1" min="4" max="4"/>
+    <col width="17.5703125" customWidth="1" min="5" max="5"/>
+    <col width="16.5703125" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>UserName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Phone</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>phulikely</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>phulikely@gmail.com</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Hung Yen</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>test123</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>aaaaaaaa</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>test123@gmail.com</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Ha Noi</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>9087654321</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>testabc</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>bbbbbbb</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>testabc@gmail.com</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ha Nam</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3333555577</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>123</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>testhhffsfs</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>123414141</v>
+      </c>
+      <c r="D5" s="1" t="inlineStr">
+        <is>
+          <t>testhhffsfs@gmail.com</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hai Duong</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>8888999998</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>123414141</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>testppgrhdfh</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>hhhhhhhh</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>testppgrhdfh@gmail.com</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hai Phong</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7777799999</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="phulikely@gmail.com"/>
-    <hyperlink ref="B3" r:id="rId2" display="test123@gmail.com"/>
-    <hyperlink ref="B4" r:id="rId3" display="testabc@gmail.com"/>
-    <hyperlink ref="B5" r:id="rId4" display="testhhffsfs@gmail.com"/>
-    <hyperlink ref="B6" r:id="rId5" display="testppgrhdfh@gmail.com"/>
-    <hyperlink ref="D2" r:id="rId6"/>
-    <hyperlink ref="D3" r:id="rId7"/>
-    <hyperlink ref="D4" r:id="rId8"/>
-    <hyperlink ref="D5" r:id="rId9"/>
+    <hyperlink ref="B2" display="phulikely@gmail.com" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="B3" display="test123@gmail.com" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="B4" display="testabc@gmail.com" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="B5" display="testhhffsfs@gmail.com" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="B6" display="testppgrhdfh@gmail.com" r:id="rId9"/>
     <hyperlink ref="D6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>